--- a/public/templates/import-kpi-position-chart-v6-vi.xlsx
+++ b/public/templates/import-kpi-position-chart-v6-vi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudjetSoluions\cloudjet\elms\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7D721-B628-46C3-845B-F41279B65ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD91EC4D-85E5-40F5-A9B3-E026C98AE7A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,19 +29,10 @@
     <t xml:space="preserve">MỤC TIÊU </t>
   </si>
   <si>
-    <t>KPI</t>
-  </si>
-  <si>
     <t>ĐƠN VỊ TÍNH</t>
   </si>
   <si>
-    <t>PP. ĐO LƯỜNG</t>
-  </si>
-  <si>
     <t>NGUỒN DỮ LIỆU</t>
-  </si>
-  <si>
-    <t>PP. TÍNH ĐIỂM</t>
   </si>
   <si>
     <t>TOÁN TỬ</t>
@@ -165,6 +156,15 @@
   </si>
   <si>
     <t>CÔNG TÁC CÁN BỘ</t>
+  </si>
+  <si>
+    <t>TÊN KPI</t>
+  </si>
+  <si>
+    <t>PHƯƠNG PHÁP ĐO LƯỜNG</t>
+  </si>
+  <si>
+    <t>PHƯƠNG PHÁP PHÂN BỔ CHỈ TIÊU</t>
   </si>
 </sst>
 </file>
@@ -424,10 +424,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -469,6 +465,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +760,10 @@
   <dimension ref="A1:AR998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -772,8 +772,9 @@
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="25" width="7.28515625" customWidth="1"/>
     <col min="26" max="26" width="31.28515625" customWidth="1"/>
@@ -781,86 +782,86 @@
     <col min="33" max="44" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:44" ht="34.5" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="14" t="s">
+      <c r="Z1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="21"/>
+      <c r="AA1" s="19"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
@@ -880,27 +881,27 @@
       <c r="AR1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="40.5" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>43</v>
+      <c r="A2" s="26" t="s">
+        <v>40</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>47</v>
+      <c r="B2" s="27" t="s">
+        <v>44</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>28</v>
+      <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -918,11 +919,11 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="27">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="25">
         <v>0.2</v>
       </c>
-      <c r="AA2" s="19"/>
+      <c r="AA2" s="17"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -942,27 +943,27 @@
       <c r="AR2" s="6"/>
     </row>
     <row r="3" spans="1:44" ht="40.5" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>44</v>
+      <c r="A3" s="26" t="s">
+        <v>41</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5">
         <v>12</v>
@@ -1012,13 +1013,13 @@
       <c r="X3" s="5">
         <v>2</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="21">
         <v>15</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="25">
         <v>0.2</v>
       </c>
-      <c r="AA3" s="20"/>
+      <c r="AA3" s="18"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
@@ -1032,27 +1033,27 @@
       <c r="AL3" s="3"/>
     </row>
     <row r="4" spans="1:44" ht="40.5" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>45</v>
+      <c r="A4" s="26" t="s">
+        <v>42</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>30</v>
+      <c r="B4" s="28" t="s">
+        <v>27</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>36</v>
+      <c r="C4" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>37</v>
+      <c r="E4" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1070,11 +1071,11 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="27">
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA4" s="20"/>
+      <c r="AA4" s="18"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
@@ -1088,27 +1089,27 @@
       <c r="AL4" s="3"/>
     </row>
     <row r="5" spans="1:44" ht="40.5" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>46</v>
+      <c r="A5" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>38</v>
+      <c r="D5" s="30" t="s">
+        <v>36</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>40</v>
+      <c r="E5" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1126,11 +1127,11 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="27">
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="20"/>
+      <c r="AA5" s="18"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
@@ -1190,9 +1191,9 @@
       <c r="AR6" s="3"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
